--- a/biology/Zoologie/Dendrelaphis_haasi/Dendrelaphis_haasi.xlsx
+++ b/biology/Zoologie/Dendrelaphis_haasi/Dendrelaphis_haasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrelaphis haasi est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrelaphis haasi est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce[1] se rencontre :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans l'ouest de la Malaisie, y compris sur l'île Tioman ;
 en Indonésie, sur les îles de Java, Sumatra, Nias, Mentawai, Belitung et au Kalimantan.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrelaphis haasi[1] est un serpent arboricole diurne. Il mesure jusqu'à 95 cm dont environ 35 cm pour la queue. L'holotype de cette espèce, un mâle adulte, a été collecté en 1890.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrelaphis haasi est un serpent arboricole diurne. Il mesure jusqu'à 95 cm dont environ 35 cm pour la queue. L'holotype de cette espèce, un mâle adulte, a été collecté en 1890.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de C.P.J. De Haas qui a collecté les spécimens types.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>van Rooijen &amp; Vogel, 2008 : Contributions to a review of the Dendrelaphis pictus complex (Serpentes: Colubridae) – 1. Description of a sympatric species. Amphibia-Reptilia, vol. 29, n. 1/2, p. 101-115.</t>
         </is>
